--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vacabun\Desktop\UWBsystem-station\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55816BEB-F752-4E39-BA33-A6FB7AE7B8DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E22435-829C-497B-BD8E-EB1618D3991C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25800" windowHeight="13470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2970" yWindow="3675" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,10 +31,11 @@
     <t>com</t>
   </si>
   <si>
-    <t>127.0.0.1</t>
+    <t>COM9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>COM5</t>
+    <t>172.27.112.185</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -42,7 +43,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -55,13 +56,11 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -70,6 +69,12 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -172,13 +177,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -459,12 +464,12 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -475,15 +480,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4">
+        <v>8031</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" s="5">
-        <v>7899</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vacabun\Desktop\UWBsystem-station\config\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E22435-829C-497B-BD8E-EB1618D3991C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2970" yWindow="3675" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -31,51 +25,43 @@
     <t>com</t>
   </si>
   <si>
-    <t>COM9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>172.27.112.185</t>
   </si>
   <si>
-    <t>172.27.112.185</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>/dev/cu.usbserial-120</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFffffff"/>
       <name val="等线"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="等线"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <scheme val="minor"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -87,8 +73,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor theme="4"/>
+        <fgColor rgb="FF5b9bd5"/>
       </patternFill>
     </fill>
   </fills>
@@ -102,43 +87,57 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="4"/>
+        <color rgb="FF5b9bd5"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
-        <color theme="4"/>
+        <color rgb="FFc6c6c6"/>
       </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF5b9bd5"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color rgb="FFc6c6c6"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="4"/>
+        <color rgb="FFc6c6c6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFc6c6c6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF5b9bd5"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFc6c6c6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFc6c6c6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF5b9bd5"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF5b9bd5"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFc6c6c6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF5b9bd5"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color theme="4"/>
+        <color rgb="FF5b9bd5"/>
       </bottom>
       <diagonal/>
     </border>
@@ -147,18 +146,18 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color theme="4"/>
+        <color rgb="FF5b9bd5"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color theme="4"/>
+        <color rgb="FF5b9bd5"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color theme="4"/>
+        <color rgb="FF5b9bd5"/>
       </bottom>
       <diagonal/>
     </border>
@@ -166,38 +165,41 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+  <cellXfs count="9">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -208,10 +210,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -238,82 +240,82 @@
         <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -325,131 +327,158 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot rev="0" lon="0" lat="0"/>
+            </a:camera>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -460,16 +489,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="22.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -480,20 +515,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="6" t="s">
-        <v>4</v>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21.75">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="5">
         <v>8031</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>3</v>
+      <c r="C2" s="6" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>